--- a/updated_filtered_data_with_lengths_carapace-car.xlsx
+++ b/updated_filtered_data_with_lengths_carapace-car.xlsx
@@ -812,7 +812,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>67d5d934767c893c85850467</t>
+          <t>67e022da5f7b4e05f9db6617</t>
         </is>
       </c>
       <c r="AD2" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>67d5d934767c893c8585046b</t>
+          <t>67e022da5f7b4e05f9db661b</t>
         </is>
       </c>
       <c r="AD3" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>67d5d934767c893c85850469</t>
+          <t>67e022da5f7b4e05f9db6619</t>
         </is>
       </c>
       <c r="AD4" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>67d5d934767c893c8585046d</t>
+          <t>67e022da5f7b4e05f9db661d</t>
         </is>
       </c>
       <c r="AD5" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850726</t>
+          <t>67e022db5f7b4e05f9db68d6</t>
         </is>
       </c>
       <c r="AD6" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850726</t>
+          <t>67e022db5f7b4e05f9db68d6</t>
         </is>
       </c>
       <c r="AD7" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850726</t>
+          <t>67e022db5f7b4e05f9db68d6</t>
         </is>
       </c>
       <c r="AD8" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850876</t>
+          <t>67e022dc5f7b4e05f9db6a26</t>
         </is>
       </c>
       <c r="AD9" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850876</t>
+          <t>67e022dc5f7b4e05f9db6a26</t>
         </is>
       </c>
       <c r="AD10" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ef</t>
+          <t>67e022db5f7b4e05f9db679f</t>
         </is>
       </c>
       <c r="AD11" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ef</t>
+          <t>67e022db5f7b4e05f9db679f</t>
         </is>
       </c>
       <c r="AD12" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ef</t>
+          <t>67e022db5f7b4e05f9db679f</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ef</t>
+          <t>67e022db5f7b4e05f9db679f</t>
         </is>
       </c>
       <c r="AD14" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585051f</t>
+          <t>67e022db5f7b4e05f9db66cf</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585051f</t>
+          <t>67e022db5f7b4e05f9db66cf</t>
         </is>
       </c>
       <c r="AD16" t="n">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585077e</t>
+          <t>67e022dc5f7b4e05f9db692e</t>
         </is>
       </c>
       <c r="AD17" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585077e</t>
+          <t>67e022dc5f7b4e05f9db692e</t>
         </is>
       </c>
       <c r="AD18" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504d0</t>
+          <t>67e022da5f7b4e05f9db6680</t>
         </is>
       </c>
       <c r="AD19" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504ce</t>
+          <t>67e022da5f7b4e05f9db667e</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504ce</t>
+          <t>67e022da5f7b4e05f9db667e</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>67d5d934767c893c85850429</t>
+          <t>67e022da5f7b4e05f9db65d9</t>
         </is>
       </c>
       <c r="AD22" t="n">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>67d5d934767c893c8585042b</t>
+          <t>67e022da5f7b4e05f9db65db</t>
         </is>
       </c>
       <c r="AD23" t="n">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>67d5d934767c893c8585042b</t>
+          <t>67e022da5f7b4e05f9db65db</t>
         </is>
       </c>
       <c r="AD24" t="n">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850612</t>
+          <t>67e022db5f7b4e05f9db67c2</t>
         </is>
       </c>
       <c r="AD25" t="n">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850612</t>
+          <t>67e022db5f7b4e05f9db67c2</t>
         </is>
       </c>
       <c r="AD26" t="n">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850614</t>
+          <t>67e022db5f7b4e05f9db67c4</t>
         </is>
       </c>
       <c r="AD27" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505b8</t>
+          <t>67e022db5f7b4e05f9db6768</t>
         </is>
       </c>
       <c r="AD35" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ba</t>
+          <t>67e022db5f7b4e05f9db676a</t>
         </is>
       </c>
       <c r="AD36" t="n">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505ba</t>
+          <t>67e022db5f7b4e05f9db676a</t>
         </is>
       </c>
       <c r="AD37" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505b6</t>
+          <t>67e022db5f7b4e05f9db6766</t>
         </is>
       </c>
       <c r="AD38" t="n">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858505bc</t>
+          <t>67e022db5f7b4e05f9db676c</t>
         </is>
       </c>
       <c r="AD39" t="n">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850660</t>
+          <t>67e022db5f7b4e05f9db6810</t>
         </is>
       </c>
       <c r="AD40" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850662</t>
+          <t>67e022db5f7b4e05f9db6812</t>
         </is>
       </c>
       <c r="AD41" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850668</t>
+          <t>67e022db5f7b4e05f9db6818</t>
         </is>
       </c>
       <c r="AD42" t="n">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585066a</t>
+          <t>67e022db5f7b4e05f9db681a</t>
         </is>
       </c>
       <c r="AD43" t="n">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850490</t>
+          <t>67e022da5f7b4e05f9db6640</t>
         </is>
       </c>
       <c r="AD44" t="n">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850490</t>
+          <t>67e022da5f7b4e05f9db6640</t>
         </is>
       </c>
       <c r="AD45" t="n">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850490</t>
+          <t>67e022da5f7b4e05f9db6640</t>
         </is>
       </c>
       <c r="AD46" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850631</t>
+          <t>67e022db5f7b4e05f9db67e1</t>
         </is>
       </c>
       <c r="AD47" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850635</t>
+          <t>67e022db5f7b4e05f9db67e5</t>
         </is>
       </c>
       <c r="AD48" t="n">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585062f</t>
+          <t>67e022db5f7b4e05f9db67df</t>
         </is>
       </c>
       <c r="AD49" t="n">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585062f</t>
+          <t>67e022db5f7b4e05f9db67df</t>
         </is>
       </c>
       <c r="AD50" t="n">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850741</t>
+          <t>67e022db5f7b4e05f9db68f1</t>
         </is>
       </c>
       <c r="AD51" t="n">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850743</t>
+          <t>67e022db5f7b4e05f9db68f3</t>
         </is>
       </c>
       <c r="AD52" t="n">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850749</t>
+          <t>67e022db5f7b4e05f9db68f9</t>
         </is>
       </c>
       <c r="AD53" t="n">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850749</t>
+          <t>67e022db5f7b4e05f9db68f9</t>
         </is>
       </c>
       <c r="AD54" t="n">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850745</t>
+          <t>67e022db5f7b4e05f9db68f5</t>
         </is>
       </c>
       <c r="AD55" t="n">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506aa</t>
+          <t>67e022db5f7b4e05f9db685a</t>
         </is>
       </c>
       <c r="AD56" t="n">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506a8</t>
+          <t>67e022db5f7b4e05f9db6858</t>
         </is>
       </c>
       <c r="AD57" t="n">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506ac</t>
+          <t>67e022db5f7b4e05f9db685c</t>
         </is>
       </c>
       <c r="AD58" t="n">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506ac</t>
+          <t>67e022db5f7b4e05f9db685c</t>
         </is>
       </c>
       <c r="AD59" t="n">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506aa</t>
+          <t>67e022db5f7b4e05f9db685a</t>
         </is>
       </c>
       <c r="AD60" t="n">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506ae</t>
+          <t>67e022db5f7b4e05f9db685e</t>
         </is>
       </c>
       <c r="AD61" t="n">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585088b</t>
+          <t>67e022dc5f7b4e05f9db6a3b</t>
         </is>
       </c>
       <c r="AD64" t="n">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585088b</t>
+          <t>67e022dc5f7b4e05f9db6a3b</t>
         </is>
       </c>
       <c r="AD65" t="n">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850889</t>
+          <t>67e022dc5f7b4e05f9db6a39</t>
         </is>
       </c>
       <c r="AD66" t="n">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506f6</t>
+          <t>67e022db5f7b4e05f9db68a6</t>
         </is>
       </c>
       <c r="AD67" t="n">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506f8</t>
+          <t>67e022db5f7b4e05f9db68a8</t>
         </is>
       </c>
       <c r="AD68" t="n">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506f2</t>
+          <t>67e022db5f7b4e05f9db68a2</t>
         </is>
       </c>
       <c r="AD69" t="n">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506f6</t>
+          <t>67e022db5f7b4e05f9db68a6</t>
         </is>
       </c>
       <c r="AD70" t="n">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507d8</t>
+          <t>67e022dc5f7b4e05f9db6988</t>
         </is>
       </c>
       <c r="AD71" t="n">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507d6</t>
+          <t>67e022dc5f7b4e05f9db6986</t>
         </is>
       </c>
       <c r="AD72" t="n">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507d2</t>
+          <t>67e022dc5f7b4e05f9db6982</t>
         </is>
       </c>
       <c r="AD73" t="n">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507d2</t>
+          <t>67e022dc5f7b4e05f9db6982</t>
         </is>
       </c>
       <c r="AD74" t="n">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507d8</t>
+          <t>67e022dc5f7b4e05f9db6988</t>
         </is>
       </c>
       <c r="AD75" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850536</t>
+          <t>67e022db5f7b4e05f9db66e6</t>
         </is>
       </c>
       <c r="AD76" t="n">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850532</t>
+          <t>67e022db5f7b4e05f9db66e2</t>
         </is>
       </c>
       <c r="AD77" t="n">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850536</t>
+          <t>67e022db5f7b4e05f9db66e6</t>
         </is>
       </c>
       <c r="AD78" t="n">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850534</t>
+          <t>67e022db5f7b4e05f9db66e4</t>
         </is>
       </c>
       <c r="AD79" t="n">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850693</t>
+          <t>67e022db5f7b4e05f9db6843</t>
         </is>
       </c>
       <c r="AD80" t="n">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>67d5d935767c893c85850693</t>
+          <t>67e022db5f7b4e05f9db6843</t>
         </is>
       </c>
       <c r="AD81" t="n">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585056e</t>
+          <t>67e022db5f7b4e05f9db671e</t>
         </is>
       </c>
       <c r="AD82" t="n">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585056e</t>
+          <t>67e022db5f7b4e05f9db671e</t>
         </is>
       </c>
       <c r="AD83" t="n">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585056e</t>
+          <t>67e022db5f7b4e05f9db671e</t>
         </is>
       </c>
       <c r="AD84" t="n">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504ef</t>
+          <t>67e022da5f7b4e05f9db669f</t>
         </is>
       </c>
       <c r="AD85" t="n">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504ef</t>
+          <t>67e022da5f7b4e05f9db669f</t>
         </is>
       </c>
       <c r="AD86" t="n">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504ef</t>
+          <t>67e022da5f7b4e05f9db669f</t>
         </is>
       </c>
       <c r="AD87" t="n">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585055b</t>
+          <t>67e022db5f7b4e05f9db670b</t>
         </is>
       </c>
       <c r="AD88" t="n">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585055b</t>
+          <t>67e022db5f7b4e05f9db670b</t>
         </is>
       </c>
       <c r="AD89" t="n">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850805</t>
+          <t>67e022dc5f7b4e05f9db69b5</t>
         </is>
       </c>
       <c r="AD90" t="n">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850807</t>
+          <t>67e022dc5f7b4e05f9db69b7</t>
         </is>
       </c>
       <c r="AD91" t="n">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850807</t>
+          <t>67e022dc5f7b4e05f9db69b7</t>
         </is>
       </c>
       <c r="AD92" t="n">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850807</t>
+          <t>67e022dc5f7b4e05f9db69b7</t>
         </is>
       </c>
       <c r="AD93" t="n">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850807</t>
+          <t>67e022dc5f7b4e05f9db69b7</t>
         </is>
       </c>
       <c r="AD94" t="n">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850807</t>
+          <t>67e022dc5f7b4e05f9db69b7</t>
         </is>
       </c>
       <c r="AD95" t="n">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585058d</t>
+          <t>67e022db5f7b4e05f9db673d</t>
         </is>
       </c>
       <c r="AD96" t="n">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585058d</t>
+          <t>67e022db5f7b4e05f9db673d</t>
         </is>
       </c>
       <c r="AD97" t="n">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585058f</t>
+          <t>67e022db5f7b4e05f9db673f</t>
         </is>
       </c>
       <c r="AD98" t="n">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585058f</t>
+          <t>67e022db5f7b4e05f9db673f</t>
         </is>
       </c>
       <c r="AD99" t="n">
@@ -18122,7 +18122,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508b9</t>
+          <t>67e022dc5f7b4e05f9db6a69</t>
         </is>
       </c>
       <c r="AD100" t="n">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508b9</t>
+          <t>67e022dc5f7b4e05f9db6a69</t>
         </is>
       </c>
       <c r="AD101" t="n">
@@ -18490,7 +18490,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508bb</t>
+          <t>67e022dc5f7b4e05f9db6a6b</t>
         </is>
       </c>
       <c r="AD102" t="n">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508bb</t>
+          <t>67e022dc5f7b4e05f9db6a6b</t>
         </is>
       </c>
       <c r="AD103" t="n">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585050c</t>
+          <t>67e022db5f7b4e05f9db66bc</t>
         </is>
       </c>
       <c r="AD104" t="n">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>67d5d935767c893c8585050c</t>
+          <t>67e022db5f7b4e05f9db66bc</t>
         </is>
       </c>
       <c r="AD105" t="n">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508e0</t>
+          <t>67e022dc5f7b4e05f9db6a90</t>
         </is>
       </c>
       <c r="AD106" t="n">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508de</t>
+          <t>67e022dc5f7b4e05f9db6a8e</t>
         </is>
       </c>
       <c r="AD107" t="n">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508de</t>
+          <t>67e022dc5f7b4e05f9db6a8e</t>
         </is>
       </c>
       <c r="AD108" t="n">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508de</t>
+          <t>67e022dc5f7b4e05f9db6a8e</t>
         </is>
       </c>
       <c r="AD109" t="n">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850795</t>
+          <t>67e022dc5f7b4e05f9db6945</t>
         </is>
       </c>
       <c r="AD110" t="n">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850795</t>
+          <t>67e022dc5f7b4e05f9db6945</t>
         </is>
       </c>
       <c r="AD111" t="n">
@@ -20326,7 +20326,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507aa</t>
+          <t>67e022dc5f7b4e05f9db695a</t>
         </is>
       </c>
       <c r="AD112" t="n">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507aa</t>
+          <t>67e022dc5f7b4e05f9db695a</t>
         </is>
       </c>
       <c r="AD113" t="n">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507a8</t>
+          <t>67e022dc5f7b4e05f9db6958</t>
         </is>
       </c>
       <c r="AD114" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508a6</t>
+          <t>67e022dc5f7b4e05f9db6a56</t>
         </is>
       </c>
       <c r="AD115" t="n">
@@ -21062,7 +21062,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858508a6</t>
+          <t>67e022dc5f7b4e05f9db6a56</t>
         </is>
       </c>
       <c r="AD116" t="n">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>67d5d936767c893c858507c7</t>
+          <t>67e022dc5f7b4e05f9db6977</t>
         </is>
       </c>
       <c r="AD117" t="n">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858506e3</t>
+          <t>67e022db5f7b4e05f9db6893</t>
         </is>
       </c>
       <c r="AD118" t="n">
@@ -21614,7 +21614,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504b1</t>
+          <t>67e022da5f7b4e05f9db6661</t>
         </is>
       </c>
       <c r="AD119" t="n">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504b1</t>
+          <t>67e022da5f7b4e05f9db6661</t>
         </is>
       </c>
       <c r="AD120" t="n">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>67d5d935767c893c858504b3</t>
+          <t>67e022da5f7b4e05f9db6663</t>
         </is>
       </c>
       <c r="AD121" t="n">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>67d5d934767c893c85850448</t>
+          <t>67e022da5f7b4e05f9db65f8</t>
         </is>
       </c>
       <c r="AD122" t="n">
@@ -22350,7 +22350,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>67d5d934767c893c8585044e</t>
+          <t>67e022da5f7b4e05f9db65fe</t>
         </is>
       </c>
       <c r="AD123" t="n">
@@ -22534,7 +22534,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585084d</t>
+          <t>67e022dc5f7b4e05f9db69fd</t>
         </is>
       </c>
       <c r="AD124" t="n">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585084f</t>
+          <t>67e022dc5f7b4e05f9db69ff</t>
         </is>
       </c>
       <c r="AD125" t="n">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585084f</t>
+          <t>67e022dc5f7b4e05f9db69ff</t>
         </is>
       </c>
       <c r="AD126" t="n">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850851</t>
+          <t>67e022dc5f7b4e05f9db6a01</t>
         </is>
       </c>
       <c r="AD127" t="n">
@@ -23270,7 +23270,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585083a</t>
+          <t>67e022dc5f7b4e05f9db69ea</t>
         </is>
       </c>
       <c r="AD128" t="n">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>67d5d936767c893c8585083a</t>
+          <t>67e022dc5f7b4e05f9db69ea</t>
         </is>
       </c>
       <c r="AD129" t="n">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850719</t>
+          <t>67e022db5f7b4e05f9db68c9</t>
         </is>
       </c>
       <c r="AD130" t="n">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850907</t>
+          <t>67e022dc5f7b4e05f9db6ab7</t>
         </is>
       </c>
       <c r="AD136" t="n">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>67d5d936767c893c85850907</t>
+          <t>67e022dc5f7b4e05f9db6ab7</t>
         </is>
       </c>
       <c r="AD137" t="n">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585096a</t>
+          <t>67e022dd5f7b4e05f9db6b1a</t>
         </is>
       </c>
       <c r="AD138" t="n">
@@ -24900,7 +24900,7 @@
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850966</t>
+          <t>67e022dd5f7b4e05f9db6b16</t>
         </is>
       </c>
       <c r="AD139" t="n">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509e2</t>
+          <t>67e022dd5f7b4e05f9db6b92</t>
         </is>
       </c>
       <c r="AD141" t="n">
@@ -25586,7 +25586,7 @@
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a7a</t>
+          <t>67e022dd5f7b4e05f9db6c2a</t>
         </is>
       </c>
       <c r="AD144" t="n">
@@ -25982,7 +25982,7 @@
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a98</t>
+          <t>67e022dd5f7b4e05f9db6c48</t>
         </is>
       </c>
       <c r="AD147" t="n">
@@ -26166,7 +26166,7 @@
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a9c</t>
+          <t>67e022dd5f7b4e05f9db6c4c</t>
         </is>
       </c>
       <c r="AD148" t="n">
@@ -26454,7 +26454,7 @@
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585097f</t>
+          <t>67e022dd5f7b4e05f9db6b2f</t>
         </is>
       </c>
       <c r="AD150" t="n">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a15</t>
+          <t>67e022dd5f7b4e05f9db6bc5</t>
         </is>
       </c>
       <c r="AD151" t="n">
@@ -27246,7 +27246,7 @@
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a36</t>
+          <t>67e022dd5f7b4e05f9db6be6</t>
         </is>
       </c>
       <c r="AD156" t="n">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509a1</t>
+          <t>67e022dd5f7b4e05f9db6b51</t>
         </is>
       </c>
       <c r="AD157" t="n">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a20</t>
+          <t>67e022dd5f7b4e05f9db6bd0</t>
         </is>
       </c>
       <c r="AD158" t="n">
@@ -28434,7 +28434,7 @@
       </c>
       <c r="AC165" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509ac</t>
+          <t>67e022dd5f7b4e05f9db6b5c</t>
         </is>
       </c>
       <c r="AD165" t="n">
@@ -28724,7 +28724,7 @@
       </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509c2</t>
+          <t>67e022dd5f7b4e05f9db6b72</t>
         </is>
       </c>
       <c r="AD167" t="n">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a4c</t>
+          <t>67e022dd5f7b4e05f9db6bfc</t>
         </is>
       </c>
       <c r="AD168" t="n">
@@ -29092,7 +29092,7 @@
       </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585093c</t>
+          <t>67e022dd5f7b4e05f9db6aec</t>
         </is>
       </c>
       <c r="AD169" t="n">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509cd</t>
+          <t>67e022dd5f7b4e05f9db6b7d</t>
         </is>
       </c>
       <c r="AD172" t="n">
@@ -29672,7 +29672,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a41</t>
+          <t>67e022dd5f7b4e05f9db6bf1</t>
         </is>
       </c>
       <c r="AD173" t="n">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509b7</t>
+          <t>67e022dd5f7b4e05f9db6b67</t>
         </is>
       </c>
       <c r="AD174" t="n">
@@ -30038,7 +30038,7 @@
       </c>
       <c r="AC175" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a62</t>
+          <t>67e022dd5f7b4e05f9db6c12</t>
         </is>
       </c>
       <c r="AD175" t="n">
@@ -30222,7 +30222,7 @@
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585098c</t>
+          <t>67e022dd5f7b4e05f9db6b3c</t>
         </is>
       </c>
       <c r="AD176" t="n">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="AC177" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585098c</t>
+          <t>67e022dd5f7b4e05f9db6b3c</t>
         </is>
       </c>
       <c r="AD177" t="n">
@@ -30590,7 +30590,7 @@
       </c>
       <c r="AC178" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585091e</t>
+          <t>67e022dc5f7b4e05f9db6ace</t>
         </is>
       </c>
       <c r="AD178" t="n">
@@ -30774,7 +30774,7 @@
       </c>
       <c r="AC179" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a6f</t>
+          <t>67e022dd5f7b4e05f9db6c1f</t>
         </is>
       </c>
       <c r="AD179" t="n">
@@ -30958,7 +30958,7 @@
       </c>
       <c r="AC180" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850ab1</t>
+          <t>67e022dd5f7b4e05f9db6c61</t>
         </is>
       </c>
       <c r="AD180" t="n">
@@ -31142,7 +31142,7 @@
       </c>
       <c r="AC181" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850aaf</t>
+          <t>67e022dd5f7b4e05f9db6c5f</t>
         </is>
       </c>
       <c r="AD181" t="n">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="AC182" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a2b</t>
+          <t>67e022dd5f7b4e05f9db6bdb</t>
         </is>
       </c>
       <c r="AD182" t="n">
@@ -31510,7 +31510,7 @@
       </c>
       <c r="AC183" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850ac4</t>
+          <t>67e022dd5f7b4e05f9db6c74</t>
         </is>
       </c>
       <c r="AD183" t="n">
@@ -31694,7 +31694,7 @@
       </c>
       <c r="AC184" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a57</t>
+          <t>67e022dd5f7b4e05f9db6c07</t>
         </is>
       </c>
       <c r="AD184" t="n">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585092b</t>
+          <t>67e022dc5f7b4e05f9db6adb</t>
         </is>
       </c>
       <c r="AD185" t="n">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a08</t>
+          <t>67e022dd5f7b4e05f9db6bb8</t>
         </is>
       </c>
       <c r="AD186" t="n">
@@ -32246,7 +32246,7 @@
       </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>67d5d937767c893c8585094b</t>
+          <t>67e022dd5f7b4e05f9db6afb</t>
         </is>
       </c>
       <c r="AD187" t="n">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850949</t>
+          <t>67e022dd5f7b4e05f9db6af9</t>
         </is>
       </c>
       <c r="AD188" t="n">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850947</t>
+          <t>67e022dd5f7b4e05f9db6af7</t>
         </is>
       </c>
       <c r="AD189" t="n">
@@ -32798,7 +32798,7 @@
       </c>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a85</t>
+          <t>67e022dd5f7b4e05f9db6c35</t>
         </is>
       </c>
       <c r="AD190" t="n">
@@ -32982,7 +32982,7 @@
       </c>
       <c r="AC191" t="inlineStr">
         <is>
-          <t>67d5d937767c893c85850a85</t>
+          <t>67e022dd5f7b4e05f9db6c35</t>
         </is>
       </c>
       <c r="AD191" t="n">
@@ -33166,7 +33166,7 @@
       </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509f5</t>
+          <t>67e022dd5f7b4e05f9db6ba5</t>
         </is>
       </c>
       <c r="AD192" t="n">
@@ -33350,7 +33350,7 @@
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>67d5d937767c893c858509f3</t>
+          <t>67e022dd5f7b4e05f9db6ba3</t>
         </is>
       </c>
       <c r="AD193" t="n">
